--- a/数据.xlsx
+++ b/数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="单位数据" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t xml:space="preserve">兽人步兵</t>
   </si>
@@ -35,6 +35,41 @@
     <t xml:space="preserve">MOVE30</t>
   </si>
   <si>
+    <t xml:space="preserve">马琳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AC14(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">法甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HP40</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -105,6 +140,66 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">体质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">智力</t>
     </r>
     <r>
@@ -158,6 +253,46 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">魅力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">凶残暴击</t>
   </si>
   <si>
@@ -217,6 +352,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">亡灵军团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马琳指挥着一支亡灵大军，在战斗轮内1个幽魂一直跟随</t>
+  </si>
+  <si>
     <t xml:space="preserve">动作</t>
   </si>
   <si>
@@ -243,6 +384,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">传奇动作(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骷髅齐射</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玛尔的骷髅军团对视野内任意点发动齐射，半径10尺DC13敏捷豁免，未通过受到6D6穿刺，通过减半</t>
+  </si>
+  <si>
     <t xml:space="preserve">巨剑</t>
   </si>
   <si>
@@ -307,6 +457,68 @@
       </rPr>
       <t xml:space="preserve">3D6+2</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">施法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">交友术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">短讯术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1环(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">致病射线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2环(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">识破隐形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3环(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法术反制</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -474,24 +686,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,114 +728,335 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="F16:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="10.94"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:I5"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -638,38 +1075,38 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F16:I19 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="48.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="3" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="48.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="4" width="10.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
